--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_128.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_128.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,618 +488,644 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_105</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_75</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2873563218390804</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
-        </is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_200</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2152173913043478</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(27.28, 57.9)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(45.72, 59.98)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:37.995918', '0:00:46.610521')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:02.408196', '0:00:13.878853')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1142241379310345</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2259615384615385</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C#:maj', 'G#:7', 'C#:maj']]</t>
+          <t>[['E:min', 'B:maj', 'E:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(25.22, 27.17)]</t>
+          <t>[['A:min', 'E:maj', 'A:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(0.48, 8.48)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:01:20.220000', '0:01:27.220000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:13.500000', '0:00:21.900000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2015810276679842</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_212</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4666666666666667</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(0.66, 2.68)]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(3.0, 5.28)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:46.932280', '0:00:55.860352')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1712473572938689</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C#:hdim7/E', 'F#:(3,5,b7,b9)', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_121</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1916666666666667</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(22.6, 29.14)]</t>
+          <t>[['C/G', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(51.42, 55.54)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:08.740000', '0:00:17.660000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:04:43.300000', '0:04:47.580000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.09601873536299765</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:7', 'Bb', 'Bb'], ['Bb', 'F:7', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_78</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_12</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3333333333333333</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'D#:maj'], ['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>[['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(43.56, 48.1), (49.56, 55.72)]</t>
+          <t>[['F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(80.48, 93.6), (79.98, 87.7)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:02:06.620000', '0:02:09.240000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:05', '0:00:21.500000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_30</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_30</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.08947368421052632</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E/3', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_34</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>jaah_1</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1133333333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'Bb']]</t>
+          <t>[['C', 'C/G', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(13.508294, 17.444076)]</t>
+          <t>[['Eb', 'Eb', 'Bb:7', 'Eb']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(1.38, 4.14)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:04:02.220000', '0:04:06.980000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:02.770000', '0:00:10.940000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+          <t>isophonics_291</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4689655172413794</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(32.920657, 39.410634)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(66.52, 70.14)]</t>
+          <t>[('0:00:05.208150', '0:00:12.997936')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>[('0:02:12.300000', '0:02:17.480000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1277173913043478</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['Db', 'Ab', 'Db']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(62.09653, 72.37136)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(43.26, 45.66)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:52.740000', '0:01:00.860000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_179</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2587412587412588</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A', 'B:7', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['Bb/5', 'C:7/3', 'Eb/2', 'Bb']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(148.857891, 157.309954)]</t>
+          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(31.027, 40.219)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:01:05.440000', '0:01:09.180000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:22.320000', '0:00:26.180000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+          <t>schubert-winterreise_56</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_206</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>1</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
-        </is>
-      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(58.08, 79.12)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(66.1, 90.1)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:12.400000', '0:00:16.560000'), ('0:00:21.880000', '0:00:24.860000'), ('0:00:17.200000', '0:00:18.680000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:12.980000', '0:00:17.200000'), ('0:00:22.600000', '0:00:25.720000'), ('0:00:17.900000', '0:00:19.440000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_288</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0699685534591195</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D/5', 'A', 'D/5']]</t>
-        </is>
+          <t>isophonics_275</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4363636363636363</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E']]</t>
+          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(31.898979, 34.035215)]</t>
+          <t>[['F:maj', 'C:maj/G', 'F:maj/A'], ['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(16.701519, 23.528185)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:24.401147', '0:00:28.461467'), ('0:00:08.158789', '0:00:22.589990')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:02:00', '0:02:02.700000'), ('0:01:57.540000', '0:02:01.800000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2153846153846154</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E:maj/B', 'B:7', 'E:maj/B'], ['D#:min/A#', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_144</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_85</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj/F'], ['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(84.96, 91.38), (116.66, 121.42)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(96.9, 102.46), (42.94, 51.08)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:00.220000', '0:00:13.100000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:00.660000', '0:00:13.280000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_30</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_114</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1758373205741627</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'D'], ['E/3', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_166</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_11</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'A'], ['B', 'E', 'E']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(2.385936, 6.194008), (13.508294, 17.444076)]</t>
+          <t>[['G:maj', 'C:maj', 'D:9/F#', 'G:maj', 'A:7/E', 'D:min', 'G:(3,5,b7,b9)', 'C:maj', 'F:maj', 'C:maj/E', 'G:min/D', 'A:maj/C#', 'A#:maj/D', 'C:7/E', 'F:maj', 'D:min7/F', 'D:(3,5,b7,b9)/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(17.942016, 24.304284), (29.888683, 33.836075)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:58.680000', '0:01:20.420000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:01:01.140000', '0:01:23.520000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.39375</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G/3', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_78</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(13.079206, 17.500916)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(154.02, 159.24)]</t>
+          <t>[('0:01:13.260000', '0:01:39.080000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+          <t>[('0:00:53.120000', '0:01:14.300000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_195</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2589285714285714</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_206</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(88.76, 98.3)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(44.16, 48.16)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:01:01.440000', '0:01:04.220000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:22.600000', '0:00:25.720000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_5</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_131</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2892857142857143</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(9.162102, 14.073123)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(61.32, 63.7)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
